--- a/Documents/开支明细.xlsx
+++ b/Documents/开支明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Tomas</t>
   </si>
@@ -253,6 +253,10 @@
       </rPr>
       <t>月租</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去上海来回火车票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,14 +426,14 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +732,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -768,7 +772,7 @@
       <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
@@ -798,12 +802,12 @@
         <f>114.74/18.71</f>
         <v>6.132549438802779</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="14">
         <f>SUMIF(F:F,"Tomas",E:E)</f>
-        <v>605.34395510422223</v>
+        <v>915.34395510422223</v>
       </c>
       <c r="L3" s="14">
         <f>SUMIF(F:F,"Patrick",E:E)</f>
@@ -828,14 +832,14 @@
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="17">
         <f>K3+L3</f>
-        <v>1512.9612720470336</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>1822.9612720470336</v>
+      </c>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7"/>
@@ -855,16 +859,16 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="14">
         <f>K4*0.5</f>
-        <v>756.48063602351681</v>
+        <v>911.48063602351681</v>
       </c>
       <c r="L5" s="14">
         <f>K4*0.5</f>
-        <v>756.48063602351681</v>
+        <v>911.48063602351681</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -885,16 +889,16 @@
       <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="14">
         <f>K3-K5</f>
-        <v>-151.13668091929458</v>
+        <v>3.8633190807054234</v>
       </c>
       <c r="L6" s="14">
         <f>L3-L5</f>
-        <v>151.13668091929446</v>
+        <v>-3.8633190807055371</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1070,11 +1074,20 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8">
+        <v>41526</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="9">
+        <f>155*2</f>
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7"/>

--- a/Documents/开支明细.xlsx
+++ b/Documents/开支明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Tomas</t>
   </si>
@@ -257,6 +257,22 @@
   </si>
   <si>
     <t>去上海来回火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>godaddy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>域名费用</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -807,7 +823,7 @@
       </c>
       <c r="K3" s="14">
         <f>SUMIF(F:F,"Tomas",E:E)</f>
-        <v>915.34395510422223</v>
+        <v>1275.1149438802777</v>
       </c>
       <c r="L3" s="14">
         <f>SUMIF(F:F,"Patrick",E:E)</f>
@@ -837,7 +853,7 @@
       </c>
       <c r="K4" s="17">
         <f>K3+L3</f>
-        <v>1822.9612720470336</v>
+        <v>2182.7322608230888</v>
       </c>
       <c r="L4" s="17"/>
     </row>
@@ -864,11 +880,11 @@
       </c>
       <c r="K5" s="14">
         <f>K4*0.5</f>
-        <v>911.48063602351681</v>
+        <v>1091.3661304115444</v>
       </c>
       <c r="L5" s="14">
         <f>K4*0.5</f>
-        <v>911.48063602351681</v>
+        <v>1091.3661304115444</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -894,11 +910,11 @@
       </c>
       <c r="K6" s="14">
         <f>K3-K5</f>
-        <v>3.8633190807054234</v>
+        <v>183.74881346873326</v>
       </c>
       <c r="L6" s="14">
         <f>L3-L5</f>
-        <v>-3.8633190807055371</v>
+        <v>-183.74881346873315</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1091,19 +1107,38 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="8">
+        <v>41640</v>
+      </c>
+      <c r="D17" s="9">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9">
+        <f>D17*$H$3</f>
+        <v>122.65098877605558</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>41656</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="9">
+        <v>237.12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -1232,6 +1267,14 @@
       <c r="E34" s="9"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
